--- a/JourneyofLords/Assets/Scripts/GameData/HeroRecruit3.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroRecruit3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A05850-AEE6-49FF-80C4-838F71A49921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1373A6-87A0-4EB8-942D-03712329471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -618,8 +620,8 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <f>C20/10</f>
-        <v>0.01</v>
+        <f>C20/13</f>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C20" s="2">
         <v>0.1</v>
@@ -631,8 +633,8 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:B55" si="1">C21/10</f>
-        <v>0.01</v>
+        <f t="shared" ref="B21:B58" si="1">C21/13</f>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C21" s="2">
         <v>0.1</v>
@@ -640,12 +642,12 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" ref="A22:A31" si="2">A21+3</f>
+        <f t="shared" ref="A22:A32" si="2">A21+3</f>
         <v>36</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C22" s="2">
         <v>0.1</v>
@@ -658,7 +660,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C23" s="2">
         <v>0.1</v>
@@ -671,7 +673,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C24" s="2">
         <v>0.1</v>
@@ -684,7 +686,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C25" s="2">
         <v>0.1</v>
@@ -697,7 +699,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C26" s="2">
         <v>0.1</v>
@@ -710,7 +712,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C27" s="2">
         <v>0.1</v>
@@ -723,7 +725,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C28" s="2">
         <v>0.1</v>
@@ -736,7 +738,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C29" s="2">
         <v>0.1</v>
@@ -749,7 +751,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C30" s="2">
         <v>0.1</v>
@@ -762,7 +764,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C31" s="2">
         <v>0.1</v>
@@ -770,24 +772,24 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="C32" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>A32+3</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C33" s="2">
         <v>0.05</v>
@@ -795,12 +797,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" ref="A34:A43" si="3">A33+3</f>
-        <v>37</v>
+        <f>A33+3</f>
+        <v>34</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C34" s="2">
         <v>0.05</v>
@@ -808,12 +810,12 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" ref="A35:A45" si="3">A34+3</f>
+        <v>37</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C35" s="2">
         <v>0.05</v>
@@ -822,11 +824,11 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C36" s="2">
         <v>0.05</v>
@@ -835,11 +837,11 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C37" s="2">
         <v>0.05</v>
@@ -848,11 +850,11 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C38" s="2">
         <v>0.05</v>
@@ -861,11 +863,11 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C39" s="2">
         <v>0.05</v>
@@ -874,11 +876,11 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C40" s="2">
         <v>0.05</v>
@@ -887,11 +889,11 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C41" s="2">
         <v>0.05</v>
@@ -900,11 +902,11 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C42" s="2">
         <v>0.05</v>
@@ -913,11 +915,11 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C43" s="2">
         <v>0.05</v>
@@ -925,37 +927,37 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C44" s="2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>A44+3</f>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="C45" s="2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" ref="A46:A57" si="4">A45+3</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C46" s="2">
         <v>0.03</v>
@@ -963,12 +965,12 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f>A46+3</f>
+        <v>35</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C47" s="2">
         <v>0.03</v>
@@ -976,12 +978,12 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="4"/>
-        <v>44</v>
+        <f t="shared" ref="A48:A58" si="4">A47+3</f>
+        <v>38</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C48" s="2">
         <v>0.03</v>
@@ -990,11 +992,11 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C49" s="2">
         <v>0.03</v>
@@ -1003,11 +1005,11 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C50" s="2">
         <v>0.03</v>
@@ -1016,11 +1018,11 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C51" s="2">
         <v>0.03</v>
@@ -1029,11 +1031,11 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C52" s="2">
         <v>0.03</v>
@@ -1042,11 +1044,11 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C53" s="2">
         <v>0.03</v>
@@ -1055,11 +1057,11 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C54" s="2">
         <v>0.03</v>
@@ -1068,13 +1070,52 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C58" s="2">
         <v>0.03</v>
       </c>
     </row>
